--- a/experiment_results/data_collector.xlsx
+++ b/experiment_results/data_collector.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yguo/Documents/Research/Papers/ASE2017-FlTechsComp/Experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yguo/RubymineProjects/altar/experiment_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-48940" yWindow="460" windowWidth="20340" windowHeight="26740" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-52020" yWindow="460" windowWidth="20340" windowHeight="26740" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_collector_Simple" sheetId="1" r:id="rId1"/>
     <sheet name="data_collector_Moderate" sheetId="2" r:id="rId2"/>
     <sheet name="data_collector_Complex" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="23" r:id="rId4"/>
+    <sheet name="JOIN" sheetId="24" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="109">
   <si>
     <t>Nodes</t>
   </si>
@@ -265,12 +266,105 @@
   <si>
     <t>crosstab HM</t>
   </si>
+  <si>
+    <t>script_name</t>
+  </si>
+  <si>
+    <t>test_id</t>
+  </si>
+  <si>
+    <t>m_u_tuple_count</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>total_score</t>
+  </si>
+  <si>
+    <t>tarantular_hm</t>
+  </si>
+  <si>
+    <t>ochihai_hm</t>
+  </si>
+  <si>
+    <t>kulczynski2_hm</t>
+  </si>
+  <si>
+    <t>naish2_hm</t>
+  </si>
+  <si>
+    <t>wong1_hm</t>
+  </si>
+  <si>
+    <t>sober_hm</t>
+  </si>
+  <si>
+    <t>liblit_hm</t>
+  </si>
+  <si>
+    <t>mw_hm</t>
+  </si>
+  <si>
+    <t>crosstab_hm</t>
+  </si>
+  <si>
+    <t>tarantular_duration</t>
+  </si>
+  <si>
+    <t>total_test_cnt</t>
+  </si>
+  <si>
+    <t>data_collector_jc4</t>
+  </si>
+  <si>
+    <t>data_collector_js1</t>
+  </si>
+  <si>
+    <t>data_collector_jc5</t>
+  </si>
+  <si>
+    <t>data_collector_jm1</t>
+  </si>
+  <si>
+    <t>data_collector_jc2</t>
+  </si>
+  <si>
+    <t>data_collector_jc3</t>
+  </si>
+  <si>
+    <t>data_collector_jm3</t>
+  </si>
+  <si>
+    <t>data_collector_js4</t>
+  </si>
+  <si>
+    <t>data_collector_jc1</t>
+  </si>
+  <si>
+    <t>data_collector_js5</t>
+  </si>
+  <si>
+    <t>data_collector_jm2</t>
+  </si>
+  <si>
+    <t>data_collector_jm5</t>
+  </si>
+  <si>
+    <t>data_collector_js2</t>
+  </si>
+  <si>
+    <t>data_collector_js3</t>
+  </si>
+  <si>
+    <t>data_collector_jm4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -469,6 +563,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -736,14 +833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH71"/>
   <sheetViews>
     <sheetView topLeftCell="AA1" workbookViewId="0">
       <selection activeCell="AH51" sqref="AH51:AH55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
@@ -763,7 +860,7 @@
     <col min="27" max="27" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="16" customHeight="1">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -867,7 +964,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -977,7 +1074,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="2" customFormat="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1087,7 +1184,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" s="2" customFormat="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1197,7 +1294,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1307,7 +1404,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1417,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" s="2" customFormat="1">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1527,7 +1624,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" s="1" customFormat="1">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1637,7 +1734,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1747,7 +1844,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" s="2" customFormat="1">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1857,7 +1954,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" s="2" customFormat="1">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -1967,7 +2064,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -2077,7 +2174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" s="2" customFormat="1">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -2187,7 +2284,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2297,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2407,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2517,7 +2614,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34">
       <c r="F17" s="8" t="s">
         <v>31</v>
       </c>
@@ -2555,7 +2652,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34">
       <c r="F18" s="8">
         <f>AVERAGE(F2:F16)</f>
         <v>19.466666666666665</v>
@@ -2605,7 +2702,7 @@
         <v>0.60222222222222221</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34">
       <c r="F19" s="8" t="s">
         <v>28</v>
       </c>
@@ -2640,7 +2737,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34">
       <c r="F20" s="8">
         <f>STDEV(F2:F16)</f>
         <v>21.256483604728587</v>
@@ -2686,51 +2783,51 @@
         <v>0.22903062340007393</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34">
       <c r="G21" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34">
       <c r="G22" s="8">
         <f>AVERAGEIF(Z2:Z16,0,G2:G16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34">
       <c r="G23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34">
       <c r="G24" s="8">
         <f t="array" ref="G24">_xlfn.STDEV.S(IF(Z2:Z16=0,G2:G16))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34">
       <c r="G25" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34">
       <c r="G26" s="8">
         <f>AVERAGEIF(Z2:Z16,1,G2:G16)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34">
       <c r="G27" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34">
       <c r="G28" s="8">
         <f t="array" ref="G28">_xlfn.STDEV.S(IF(Z2:Z16=1,G2:G16))</f>
         <v>0.28867513459481292</v>
       </c>
     </row>
-    <row r="29" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" s="2" customFormat="1">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -2840,7 +2937,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" s="2" customFormat="1">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -2944,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3054,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3158,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3268,7 +3365,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3372,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" s="2" customFormat="1">
       <c r="A35" s="2">
         <v>4</v>
       </c>
@@ -3482,7 +3579,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" s="3" customFormat="1">
       <c r="A36" s="3">
         <v>4</v>
       </c>
@@ -3586,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34">
       <c r="A37">
         <v>5</v>
       </c>
@@ -3696,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" s="1" customFormat="1">
       <c r="A38" s="1">
         <v>5</v>
       </c>
@@ -3800,73 +3897,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34">
       <c r="G39" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34">
       <c r="G40" s="8">
         <f>AVERAGE(G29:G38)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34">
       <c r="G41" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34">
       <c r="G42" s="8">
         <f>STDEV(G29:G38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34">
       <c r="G43" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34">
       <c r="G44" s="8">
         <f>AVERAGEIF(Z29:Z38,0,G29:G38)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34">
       <c r="G45" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34">
       <c r="G46" s="8">
         <f t="array" ref="G46">_xlfn.STDEV.S(IF(Z29:Z38=0,G29:G38))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34">
       <c r="G47" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34">
       <c r="G48" s="8">
         <f>AVERAGEIF(Z29:Z38,1,G29:G38)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34">
       <c r="G49" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34">
       <c r="G50" s="8">
         <f t="array" ref="G50">_xlfn.STDEV.S(IF(Z29:Z38=1,G29:G38))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" s="2" customFormat="1">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -3977,7 +4074,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34">
       <c r="A52">
         <v>2</v>
       </c>
@@ -4088,7 +4185,7 @@
         <v>0.83333000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34">
       <c r="A53">
         <v>3</v>
       </c>
@@ -4199,7 +4296,7 @@
         <v>0.58330000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" s="2" customFormat="1">
       <c r="A54" s="2">
         <v>4</v>
       </c>
@@ -4310,7 +4407,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34">
       <c r="A55">
         <v>5</v>
       </c>
@@ -4421,7 +4518,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34">
       <c r="G56" s="8" t="s">
         <v>31</v>
       </c>
@@ -4450,7 +4547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34">
       <c r="G57" s="8">
         <f>AVERAGE(G51:G55)</f>
         <v>0.96</v>
@@ -4480,7 +4577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34">
       <c r="G58" s="8" t="s">
         <v>28</v>
       </c>
@@ -4509,7 +4606,7 @@
         <v xml:space="preserve"> 3</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34">
       <c r="G59" s="8">
         <f>STDEV(G51:G55)</f>
         <v>8.9442719099991574E-2</v>
@@ -4539,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34">
       <c r="G60" s="8" t="s">
         <v>39</v>
       </c>
@@ -4568,7 +4665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34">
       <c r="G61" s="8">
         <f>AVERAGEIF(Z46:Z55,0,G46:G55)</f>
         <v>1</v>
@@ -4598,7 +4695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34">
       <c r="A62" s="2" t="s">
         <v>34</v>
       </c>
@@ -4630,7 +4727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34">
       <c r="A63" s="2" t="s">
         <v>35</v>
       </c>
@@ -4663,7 +4760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34">
       <c r="G64" s="8" t="s">
         <v>40</v>
       </c>
@@ -4692,7 +4789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:21">
       <c r="G65" s="8">
         <f>AVERAGEIF(Z46:Z55,1,G46:G55)</f>
         <v>0.8</v>
@@ -4722,18 +4819,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:21">
       <c r="G66" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:21">
       <c r="G67" s="8" t="e">
         <f t="array" ref="G67">_xlfn.STDEV.S(IF(Z46:Z55=1,G46:G55))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="7:21">
       <c r="R71" s="12">
         <f>(P56+P61+2)/(P56*P61+P56+P61+1)</f>
         <v>0.75</v>
@@ -4746,14 +4843,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH63"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AH51" sqref="AH51:AH55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="8"/>
@@ -4771,7 +4868,7 @@
     <col min="27" max="27" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="16" customHeight="1">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -4875,7 +4972,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4985,7 +5082,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5095,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5205,7 +5302,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5315,7 +5412,7 @@
         <v>0.28571400000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5425,7 +5522,7 @@
         <v>0.28571400000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34">
       <c r="A7">
         <v>2</v>
       </c>
@@ -5535,7 +5632,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5645,7 +5742,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5755,7 +5852,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5865,7 +5962,7 @@
         <v>0.33333299999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" s="2" customFormat="1">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -5975,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -6085,7 +6182,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" s="2" customFormat="1">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -6195,7 +6292,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" s="2" customFormat="1">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -6305,7 +6402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" s="2" customFormat="1">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -6415,7 +6512,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" s="2" customFormat="1">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -6525,7 +6622,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34">
       <c r="F17" s="8" t="s">
         <v>31</v>
       </c>
@@ -6567,7 +6664,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34">
       <c r="F18" s="8">
         <f>AVERAGE(F2:F16)</f>
         <v>13.4</v>
@@ -6620,7 +6717,7 @@
         <v>0.5547619047619049</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34">
       <c r="F19" s="8" t="s">
         <v>28</v>
       </c>
@@ -6662,7 +6759,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34">
       <c r="F20" s="8">
         <f>STDEV(F2:F16)</f>
         <v>13.447251445130764</v>
@@ -6715,31 +6812,31 @@
         <v>0.23961251248348009</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34">
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34">
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34">
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34">
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34">
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34">
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34">
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34">
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34">
       <c r="A29">
         <v>1</v>
       </c>
@@ -6848,7 +6945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6952,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34">
       <c r="A31">
         <v>2</v>
       </c>
@@ -7062,7 +7159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34">
       <c r="A32">
         <v>2</v>
       </c>
@@ -7166,7 +7263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34">
       <c r="A33">
         <v>3</v>
       </c>
@@ -7276,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34">
       <c r="A34">
         <v>3</v>
       </c>
@@ -7380,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" s="2" customFormat="1">
       <c r="A35" s="2">
         <v>4</v>
       </c>
@@ -7490,7 +7587,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" s="2" customFormat="1">
       <c r="A36" s="2">
         <v>4</v>
       </c>
@@ -7594,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" s="2" customFormat="1">
       <c r="A37" s="2">
         <v>5</v>
       </c>
@@ -7704,7 +7801,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" s="2" customFormat="1">
       <c r="A38" s="2">
         <v>5</v>
       </c>
@@ -7808,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34">
       <c r="G39" s="16" t="s">
         <v>31</v>
       </c>
@@ -7821,7 +7918,7 @@
       <c r="U39" s="19"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34">
       <c r="G40" s="16">
         <f>AVERAGE(G29:G38)</f>
         <v>1</v>
@@ -7835,7 +7932,7 @@
       <c r="U40" s="19"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34">
       <c r="G41" s="16" t="s">
         <v>28</v>
       </c>
@@ -7848,7 +7945,7 @@
       <c r="U41" s="19"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34">
       <c r="G42" s="16">
         <f>STDEV(G29:G38)</f>
         <v>0</v>
@@ -7862,31 +7959,31 @@
       <c r="U42" s="19"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34">
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34">
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34">
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34">
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34">
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34">
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34">
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34">
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34">
       <c r="A51">
         <v>1</v>
       </c>
@@ -7997,7 +8094,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34">
       <c r="A52">
         <v>2</v>
       </c>
@@ -8108,7 +8205,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34">
       <c r="A53">
         <v>3</v>
       </c>
@@ -8219,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" s="2" customFormat="1">
       <c r="A54" s="2">
         <v>4</v>
       </c>
@@ -8330,7 +8427,7 @@
         <v>0.16669999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" s="2" customFormat="1">
       <c r="A55" s="2">
         <v>5</v>
       </c>
@@ -8441,7 +8538,7 @@
         <v>0.14285700000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34">
       <c r="G56" s="8" t="s">
         <v>31</v>
       </c>
@@ -8470,7 +8567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34">
       <c r="G57" s="8">
         <f>AVERAGE(G51:G55)</f>
         <v>1</v>
@@ -8500,7 +8597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34">
       <c r="G58" s="8" t="s">
         <v>28</v>
       </c>
@@ -8529,7 +8626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34">
       <c r="G59" s="8">
         <f>STDEV(G51:G55)</f>
         <v>0</v>
@@ -8559,7 +8656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34">
       <c r="P60" s="22" t="str">
         <f t="shared" ref="P60:U60" si="28">RIGHT(P52,LEN(P52) -FIND(",", P52))</f>
         <v>4</v>
@@ -8585,7 +8682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34">
       <c r="P61" s="22" t="str">
         <f t="shared" ref="P61:U61" si="29">RIGHT(P53,LEN(P53) -FIND(",", P53))</f>
         <v>6</v>
@@ -8611,12 +8708,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34">
       <c r="A62" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34">
       <c r="A63" s="2" t="s">
         <v>36</v>
       </c>
@@ -8627,14 +8724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH59"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AH51" sqref="AH51:AH55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
@@ -8650,7 +8747,7 @@
     <col min="27" max="27" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -8754,7 +8851,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8864,7 +8961,7 @@
         <v>0.33333299999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8974,7 +9071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" s="1" customFormat="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9084,7 +9181,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9194,7 +9291,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>2</v>
       </c>
@@ -9304,7 +9401,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" s="2" customFormat="1">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -9414,7 +9511,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9524,7 +9621,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34">
       <c r="A9">
         <v>3</v>
       </c>
@@ -9634,7 +9731,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34">
       <c r="A10">
         <v>3</v>
       </c>
@@ -9744,7 +9841,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34">
       <c r="A11">
         <v>4</v>
       </c>
@@ -9854,7 +9951,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34">
       <c r="A12">
         <v>4</v>
       </c>
@@ -9964,7 +10061,7 @@
         <v>0.22220000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="25" customHeight="1">
       <c r="A13">
         <v>4</v>
       </c>
@@ -10074,7 +10171,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34">
       <c r="A14">
         <v>5</v>
       </c>
@@ -10184,7 +10281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>5</v>
       </c>
@@ -10294,7 +10391,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34">
       <c r="A16">
         <v>5</v>
       </c>
@@ -10404,7 +10501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34">
       <c r="F17" s="8" t="s">
         <v>31</v>
       </c>
@@ -10440,7 +10537,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34">
       <c r="F18" s="8">
         <f>AVERAGE(F2:F16)</f>
         <v>34.133333333333333</v>
@@ -10487,7 +10584,7 @@
         <v>0.37604136604136601</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34">
       <c r="F19" s="8" t="s">
         <v>28</v>
       </c>
@@ -10523,7 +10620,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34">
       <c r="F20" s="8">
         <f>STDEV(F2:F16)</f>
         <v>57.720838854743256</v>
@@ -10570,31 +10667,31 @@
         <v>0.28237110854188635</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34">
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34">
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34">
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34">
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34">
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34">
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34">
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34">
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34">
       <c r="A29">
         <v>1</v>
       </c>
@@ -10703,7 +10800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34">
       <c r="A30">
         <v>1</v>
       </c>
@@ -10807,7 +10904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34">
       <c r="A31">
         <v>2</v>
       </c>
@@ -10917,7 +11014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34">
       <c r="A32">
         <v>2</v>
       </c>
@@ -11021,7 +11118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34">
       <c r="A33">
         <v>3</v>
       </c>
@@ -11131,7 +11228,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34">
       <c r="A34">
         <v>3</v>
       </c>
@@ -11235,7 +11332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34">
       <c r="A35">
         <v>4</v>
       </c>
@@ -11345,7 +11442,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34">
       <c r="A36">
         <v>4</v>
       </c>
@@ -11449,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34">
       <c r="A37">
         <v>5</v>
       </c>
@@ -11559,7 +11656,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34">
       <c r="A38">
         <v>5</v>
       </c>
@@ -11663,7 +11760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34">
       <c r="G39" s="8" t="s">
         <v>31</v>
       </c>
@@ -11674,7 +11771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34">
       <c r="G40" s="8">
         <f>AVERAGE(G29:G38)</f>
         <v>1</v>
@@ -11688,7 +11785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34">
       <c r="G41" s="8" t="s">
         <v>28</v>
       </c>
@@ -11699,7 +11796,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34">
       <c r="G42" s="8">
         <f>STDEV(G29:G38)</f>
         <v>0</v>
@@ -11713,31 +11810,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34">
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34">
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34">
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34">
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34">
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34">
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34">
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34">
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" s="1" customFormat="1">
       <c r="A51">
         <v>1</v>
       </c>
@@ -11842,7 +11939,7 @@
         <v>0.44444400000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34">
       <c r="A52">
         <v>2</v>
       </c>
@@ -11953,7 +12050,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" s="2" customFormat="1">
       <c r="A53" s="2">
         <v>3</v>
       </c>
@@ -12064,7 +12161,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A54" s="2">
         <v>4</v>
       </c>
@@ -12175,7 +12272,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" ht="25" customHeight="1">
       <c r="A55">
         <v>5</v>
       </c>
@@ -12286,7 +12383,7 @@
         <v>0.14285700000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34">
       <c r="G56" s="8" t="s">
         <v>31</v>
       </c>
@@ -12297,7 +12394,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34">
       <c r="G57" s="8">
         <f>AVERAGE(G51:G55)</f>
         <v>1</v>
@@ -12311,7 +12408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34">
       <c r="G58" s="8" t="s">
         <v>28</v>
       </c>
@@ -12322,7 +12419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34">
       <c r="G59" s="8">
         <f>STDEV(G51:G55)</f>
         <v>0</v>
@@ -12342,16 +12439,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -12374,7 +12471,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -12403,7 +12500,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -12432,7 +12529,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>0.66666666666666663</v>
       </c>
@@ -12461,7 +12558,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>0.66666666666666663</v>
       </c>
@@ -12490,7 +12587,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -12519,7 +12616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>0.66666666666666663</v>
       </c>
@@ -12548,7 +12645,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>0.5</v>
       </c>
@@ -12577,7 +12674,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>0.66666666666666663</v>
       </c>
@@ -12606,7 +12703,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>0.66666666666666663</v>
       </c>
@@ -12635,7 +12732,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>0.4</v>
       </c>
@@ -12664,7 +12761,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>0.4</v>
       </c>
@@ -12693,7 +12790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>0.66666666666666663</v>
       </c>
@@ -12722,7 +12819,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>0.4</v>
       </c>
@@ -12751,7 +12848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>0.4</v>
       </c>
@@ -12780,7 +12877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>0.66666666666666663</v>
       </c>
@@ -12809,7 +12906,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>0.66666666699999999</v>
       </c>
@@ -12838,7 +12935,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -12867,7 +12964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>0.5</v>
       </c>
@@ -12896,7 +12993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -12925,7 +13022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>0.4</v>
       </c>
@@ -12954,7 +13051,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -12983,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -13012,7 +13109,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -13041,7 +13138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>0.4</v>
       </c>
@@ -13070,7 +13167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -13099,7 +13196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>0.75</v>
       </c>
@@ -13128,7 +13225,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>0.58333333300000001</v>
       </c>
@@ -13157,7 +13254,7 @@
         <v>0.83333000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>0.45</v>
       </c>
@@ -13186,7 +13283,7 @@
         <v>0.58330000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>0.7</v>
       </c>
@@ -13215,7 +13312,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>0.45</v>
       </c>
@@ -13244,7 +13341,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <v>0.4</v>
       </c>
@@ -13273,7 +13370,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -13302,7 +13399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="2">
         <v>0.66666666699999999</v>
       </c>
@@ -13331,7 +13428,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="2">
         <v>0.28571428599999998</v>
       </c>
@@ -13360,7 +13457,7 @@
         <v>0.28571400000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="2">
         <v>0.28571428599999998</v>
       </c>
@@ -13389,7 +13486,7 @@
         <v>0.28571400000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="2">
         <v>0.5</v>
       </c>
@@ -13418,7 +13515,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="2">
         <v>0.33333333300000001</v>
       </c>
@@ -13447,7 +13544,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="2">
         <v>0.4</v>
       </c>
@@ -13476,7 +13573,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="2">
         <v>0.28571428599999998</v>
       </c>
@@ -13505,7 +13602,7 @@
         <v>0.33333299999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="2">
         <v>0.28571428599999998</v>
       </c>
@@ -13534,7 +13631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="2">
         <v>0.5</v>
       </c>
@@ -13563,7 +13660,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="2">
         <v>0.5</v>
       </c>
@@ -13592,7 +13689,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="2">
         <v>0.25</v>
       </c>
@@ -13621,7 +13718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="2">
         <v>0.5</v>
       </c>
@@ -13650,7 +13747,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="2">
         <v>0.5</v>
       </c>
@@ -13679,7 +13776,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>0.33333333333333337</v>
       </c>
@@ -13708,7 +13805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>0</v>
       </c>
@@ -13737,7 +13834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>1</v>
       </c>
@@ -13766,7 +13863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>0</v>
       </c>
@@ -13795,7 +13892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>0.2857142857142857</v>
       </c>
@@ -13824,7 +13921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>0</v>
       </c>
@@ -13853,7 +13950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>0.33333333333333337</v>
       </c>
@@ -13882,7 +13979,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>0</v>
       </c>
@@ -13911,7 +14008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>0.33333333333333337</v>
       </c>
@@ -13940,7 +14037,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>0</v>
       </c>
@@ -13969,7 +14066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="2">
         <v>0.366666667</v>
       </c>
@@ -13998,7 +14095,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="2">
         <v>0.7</v>
       </c>
@@ -14027,7 +14124,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="2">
         <v>0.30952381000000001</v>
       </c>
@@ -14056,7 +14153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="2">
         <v>0.25</v>
       </c>
@@ -14085,7 +14182,7 @@
         <v>0.16669999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="2">
         <v>0.25</v>
       </c>
@@ -14114,7 +14211,7 @@
         <v>0.14285700000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="2">
         <v>0.33333333300000001</v>
       </c>
@@ -14143,7 +14240,7 @@
         <v>0.33333299999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="2">
         <v>0.222222222</v>
       </c>
@@ -14172,7 +14269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="2">
         <v>0.66666666699999999</v>
       </c>
@@ -14201,7 +14298,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="2">
         <v>0.5</v>
       </c>
@@ -14230,7 +14327,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="2">
         <v>0.4</v>
       </c>
@@ -14259,7 +14356,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="2">
         <v>0.25</v>
       </c>
@@ -14288,7 +14385,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="2">
         <v>0.5</v>
       </c>
@@ -14317,7 +14414,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="2">
         <v>0.18181818199999999</v>
       </c>
@@ -14346,7 +14443,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="2">
         <v>0.222222222</v>
       </c>
@@ -14375,7 +14472,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="2">
         <v>0.222222222</v>
       </c>
@@ -14404,7 +14501,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="2">
         <v>1</v>
       </c>
@@ -14433,7 +14530,7 @@
         <v>0.22220000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="2">
         <v>0.5</v>
       </c>
@@ -14462,7 +14559,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="2">
         <v>0.18181818199999999</v>
       </c>
@@ -14491,7 +14588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="2">
         <v>0.25</v>
       </c>
@@ -14520,7 +14617,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="2">
         <v>1</v>
       </c>
@@ -14549,7 +14646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="2">
         <v>0.222222222</v>
       </c>
@@ -14578,7 +14675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="2">
         <v>0</v>
       </c>
@@ -14607,7 +14704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="2">
         <v>0.2</v>
       </c>
@@ -14636,7 +14733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="2">
         <v>0</v>
       </c>
@@ -14665,7 +14762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" s="2">
         <v>0.28571428599999998</v>
       </c>
@@ -14694,7 +14791,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" s="2">
         <v>0</v>
       </c>
@@ -14723,7 +14820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" s="2">
         <v>0.25</v>
       </c>
@@ -14752,7 +14849,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" s="2">
         <v>0</v>
       </c>
@@ -14781,7 +14878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" s="2">
         <v>0.33333333300000001</v>
       </c>
@@ -14810,7 +14907,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" s="2">
         <v>0</v>
       </c>
@@ -14839,7 +14936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" s="2">
         <v>0.22</v>
       </c>
@@ -14868,7 +14965,7 @@
         <v>0.44444400000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" s="23">
         <v>0.111111111</v>
       </c>
@@ -14897,7 +14994,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" s="23">
         <v>7.4074074000000004E-2</v>
       </c>
@@ -14926,7 +15023,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" s="23">
         <v>6.6666666999999999E-2</v>
       </c>
@@ -14955,7 +15052,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="17" thickBot="1">
       <c r="A91" s="23">
         <v>9.5238094999999995E-2</v>
       </c>
@@ -14984,7 +15081,7 @@
         <v>0.14285700000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="17" thickTop="1">
       <c r="A92" s="23" t="s">
         <v>73</v>
       </c>
@@ -15010,7 +15107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93" s="23">
         <f>AVERAGE(A2:A91)</f>
         <v>0.37011212657089937</v>
@@ -15048,7 +15145,7 @@
         <v>0.48507984444444424</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94" s="23" t="s">
         <v>28</v>
       </c>
@@ -15071,7 +15168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" s="23">
         <f>STDEV(A2:A91)</f>
         <v>0.26476318513241154</v>
@@ -15107,6 +15204,3911 @@
       <c r="I95" s="23">
         <f t="shared" si="1"/>
         <v>0.33527489967289875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8AB4EB-D5A3-0142-A783-5D87E7F6D339}">
+  <dimension ref="A1:P79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>33</v>
+      </c>
+      <c r="P2">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>272177</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>272177</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.4</v>
+      </c>
+      <c r="L3">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="O3">
+        <v>16</v>
+      </c>
+      <c r="P3">
+        <v>272408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>254479</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>254479</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="L4">
+        <v>0.25</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O4">
+        <v>16</v>
+      </c>
+      <c r="P4">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>272177</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>272177</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.2</v>
+      </c>
+      <c r="L5">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.5</v>
+      </c>
+      <c r="N5">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
+      <c r="P5">
+        <v>272408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>55820</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>55820</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>55920</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>46287</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>46287</v>
+      </c>
+      <c r="F8">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>46287</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>46287</v>
+      </c>
+      <c r="F9">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.5</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>35</v>
+      </c>
+      <c r="P10">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>272177</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>272177</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.4</v>
+      </c>
+      <c r="L11">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="O11">
+        <v>17</v>
+      </c>
+      <c r="P11">
+        <v>272408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>254479</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>254479</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="L12">
+        <v>0.25</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O12">
+        <v>18</v>
+      </c>
+      <c r="P12">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>272177</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>272177</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>0.5</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.2</v>
+      </c>
+      <c r="L13">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="M13">
+        <v>0.5</v>
+      </c>
+      <c r="N13">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="O13">
+        <v>20</v>
+      </c>
+      <c r="P13">
+        <v>272408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>44064</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>44064</v>
+      </c>
+      <c r="F15">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.5</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>44064</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>44064</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.5</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>44296</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>44296</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.2</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>35</v>
+      </c>
+      <c r="P18">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>254610</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>254610</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="O19">
+        <v>11</v>
+      </c>
+      <c r="P19">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>254610</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>254610</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.5</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O20">
+        <v>12</v>
+      </c>
+      <c r="P20">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>254610</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>254610</v>
+      </c>
+      <c r="F21">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="O21">
+        <v>17</v>
+      </c>
+      <c r="P21">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>30</v>
+      </c>
+      <c r="P22">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>254610</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>254610</v>
+      </c>
+      <c r="F23">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G23">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O23">
+        <v>12</v>
+      </c>
+      <c r="P23">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>254610</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>254610</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.5</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0.5</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O24">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>254610</v>
+      </c>
+      <c r="D25">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>254610</v>
+      </c>
+      <c r="F25">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G25">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H25">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="O25">
+        <v>21</v>
+      </c>
+      <c r="P25">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="P26">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>44064</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>44064</v>
+      </c>
+      <c r="F27">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H27">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0.5</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>44064</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>44064</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>44064</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>44064</v>
+      </c>
+      <c r="F29">
+        <v>0.25</v>
+      </c>
+      <c r="G29">
+        <v>0.25</v>
+      </c>
+      <c r="H29">
+        <v>0.25</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0.25</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0.25</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>55820</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>55820</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <v>55920</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>46287</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>46287</v>
+      </c>
+      <c r="F32">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G32">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H32">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>46287</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>46287</v>
+      </c>
+      <c r="F33">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G33">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H33">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0.5</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>23</v>
+      </c>
+      <c r="P34">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>254610</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>254610</v>
+      </c>
+      <c r="F35">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G35">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H35">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O35">
+        <v>14</v>
+      </c>
+      <c r="P35">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>254610</v>
+      </c>
+      <c r="D36">
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <v>254610</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.5</v>
+      </c>
+      <c r="H36">
+        <v>0.5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0.5</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O36">
+        <v>18</v>
+      </c>
+      <c r="P36">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>254610</v>
+      </c>
+      <c r="D37">
+        <v>19</v>
+      </c>
+      <c r="E37">
+        <v>254610</v>
+      </c>
+      <c r="F37">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G37">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H37">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="O37">
+        <v>19</v>
+      </c>
+      <c r="P37">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>55820</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>55820</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>55920</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>46287</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>46287</v>
+      </c>
+      <c r="F40">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G40">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H40">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>46287</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>46287</v>
+      </c>
+      <c r="F41">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G41">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H41">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0.5</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>8</v>
+      </c>
+      <c r="P42">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>44064</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>44064</v>
+      </c>
+      <c r="F43">
+        <v>0.5</v>
+      </c>
+      <c r="G43">
+        <v>0.5</v>
+      </c>
+      <c r="H43">
+        <v>0.5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0.5</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>44064</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>44064</v>
+      </c>
+      <c r="F44">
+        <v>0.5</v>
+      </c>
+      <c r="G44">
+        <v>0.5</v>
+      </c>
+      <c r="H44">
+        <v>0.5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0.5</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0.5</v>
+      </c>
+      <c r="O44">
+        <v>3</v>
+      </c>
+      <c r="P44">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>44064</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>44064</v>
+      </c>
+      <c r="F45">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G45">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H45">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0.25</v>
+      </c>
+      <c r="O45">
+        <v>3</v>
+      </c>
+      <c r="P45">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>5</v>
+      </c>
+      <c r="P46">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>44064</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>44064</v>
+      </c>
+      <c r="F47">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G47">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H47">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0.5</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>44064</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>44064</v>
+      </c>
+      <c r="F48">
+        <v>0.5</v>
+      </c>
+      <c r="G48">
+        <v>0.5</v>
+      </c>
+      <c r="H48">
+        <v>0.5</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0.5</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0.5</v>
+      </c>
+      <c r="O48">
+        <v>9</v>
+      </c>
+      <c r="P48">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>44064</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>44064</v>
+      </c>
+      <c r="F49">
+        <v>0.25</v>
+      </c>
+      <c r="G49">
+        <v>0.25</v>
+      </c>
+      <c r="H49">
+        <v>0.25</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0.25</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0.25</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>6</v>
+      </c>
+      <c r="P50">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>49101</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>49101</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <v>49202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>46286</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>46286</v>
+      </c>
+      <c r="F52">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G52">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H52">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="L52">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>46286</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>46286</v>
+      </c>
+      <c r="F53">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G53">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H53">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="L53">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+      <c r="P54">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>49442</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>49442</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>2</v>
+      </c>
+      <c r="P55">
+        <v>49543</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>46286</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>46286</v>
+      </c>
+      <c r="F56">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H56">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="L56">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>46286</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>46286</v>
+      </c>
+      <c r="F57">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G57">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H57">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="L57">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>6</v>
+      </c>
+      <c r="P58">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>44064</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>44064</v>
+      </c>
+      <c r="F59">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G59">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H59">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0.5</v>
+      </c>
+      <c r="O59">
+        <v>3</v>
+      </c>
+      <c r="P59">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>44064</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>44064</v>
+      </c>
+      <c r="F60">
+        <v>0.5</v>
+      </c>
+      <c r="G60">
+        <v>0.5</v>
+      </c>
+      <c r="H60">
+        <v>0.5</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0.5</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0.5</v>
+      </c>
+      <c r="O60">
+        <v>3</v>
+      </c>
+      <c r="P60">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>44064</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>44064</v>
+      </c>
+      <c r="F61">
+        <v>0.25</v>
+      </c>
+      <c r="G61">
+        <v>0.25</v>
+      </c>
+      <c r="H61">
+        <v>0.25</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0.25</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0.25</v>
+      </c>
+      <c r="O61">
+        <v>3</v>
+      </c>
+      <c r="P61">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>272177</v>
+      </c>
+      <c r="D62">
+        <v>25</v>
+      </c>
+      <c r="E62">
+        <v>272177</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>25</v>
+      </c>
+      <c r="P62">
+        <v>272408</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>46287</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>46287</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>2</v>
+      </c>
+      <c r="P63">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>272177</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>272177</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>20</v>
+      </c>
+      <c r="P64">
+        <v>272408</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>44296</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>44296</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>3</v>
+      </c>
+      <c r="P65">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>254610</v>
+      </c>
+      <c r="D66">
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <v>254610</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>17</v>
+      </c>
+      <c r="P66">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>254610</v>
+      </c>
+      <c r="D67">
+        <v>21</v>
+      </c>
+      <c r="E67">
+        <v>254610</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>21</v>
+      </c>
+      <c r="P67">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>44064</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>44064</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>3</v>
+      </c>
+      <c r="P68">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>46287</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>46287</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>254610</v>
+      </c>
+      <c r="D70">
+        <v>19</v>
+      </c>
+      <c r="E70">
+        <v>254610</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>19</v>
+      </c>
+      <c r="P70">
+        <v>254710</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>46287</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>46287</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>3</v>
+      </c>
+      <c r="P71">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>44064</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>44064</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>3</v>
+      </c>
+      <c r="P72">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>44064</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>44064</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>3</v>
+      </c>
+      <c r="P73">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>46286</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>46286</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>3</v>
+      </c>
+      <c r="P74">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>46286</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>46286</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>2</v>
+      </c>
+      <c r="P75">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>44064</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>44064</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>3</v>
+      </c>
+      <c r="P76">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78">
+        <f>AVERAGE(F2:F76)</f>
+        <v>0.36777778666666666</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ref="G78:O78" si="0">AVERAGE(G2:G76)</f>
+        <v>0.36777778666666666</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="0"/>
+        <v>0.36777778666666666</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="0"/>
+        <v>0.11822221333333334</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="0"/>
+        <v>0.31698412000000004</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="0"/>
+        <v>0.22171425333333331</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="0"/>
+        <v>8.9333333333333336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79">
+        <f>STDEV(F2:F76)</f>
+        <v>0.36171241096799289</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ref="G79:O79" si="1">STDEV(G2:G76)</f>
+        <v>0.36171241096799289</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>0.36171241096799289</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="1"/>
+        <v>0.27717436345334084</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="1"/>
+        <v>0.32840038117315667</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="1"/>
+        <v>0.17933812244517941</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="1"/>
+        <v>0.26348038999752099</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="1"/>
+        <v>9.1331492057457613</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_results/data_collector.xlsx
+++ b/experiment_results/data_collector.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-52020" yWindow="460" windowWidth="20340" windowHeight="26740" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="460" windowWidth="32500" windowHeight="26740" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_collector_Simple" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="110">
   <si>
     <t>Nodes</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>data_collector_jm4</t>
+  </si>
+  <si>
+    <t>mw_duration</t>
   </si>
 </sst>
 </file>
@@ -15213,15 +15216,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8AB4EB-D5A3-0142-A783-5D87E7F6D339}">
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="P88" sqref="P88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -15268,10 +15271,13 @@
         <v>92</v>
       </c>
       <c r="P1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -15279,13 +15285,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>277673</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>277673</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -15315,13 +15321,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="P2">
-        <v>254710</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>68</v>
+      </c>
+      <c r="Q2">
+        <v>532383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -15332,7 +15341,7 @@
         <v>272177</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>272177</v>
@@ -15365,13 +15374,16 @@
         <v>0.28571400000000002</v>
       </c>
       <c r="O3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P3">
+        <v>17</v>
+      </c>
+      <c r="Q3">
         <v>272408</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -15382,7 +15394,7 @@
         <v>254479</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>254479</v>
@@ -15415,13 +15427,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P4">
+        <v>14</v>
+      </c>
+      <c r="Q4">
         <v>254710</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -15429,22 +15444,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>272177</v>
+        <v>290371</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>272177</v>
+        <v>290371</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="G5">
         <v>0.5</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -15462,16 +15477,19 @@
         <v>0.5</v>
       </c>
       <c r="N5">
-        <v>0.14285700000000001</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="O5">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P5">
-        <v>272408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q5">
+        <v>290602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -15479,13 +15497,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2135</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2135</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15515,13 +15533,16 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P6">
-        <v>46387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>48522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -15547,7 +15568,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -15568,10 +15589,13 @@
         <v>2</v>
       </c>
       <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
         <v>55920</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -15618,10 +15642,13 @@
         <v>2</v>
       </c>
       <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
         <v>46387</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -15629,13 +15656,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>46287</v>
+        <v>48604</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
-        <v>46287</v>
+        <v>48604</v>
       </c>
       <c r="F9">
         <v>0.33333299999999999</v>
@@ -15668,10 +15695,13 @@
         <v>2</v>
       </c>
       <c r="P9">
-        <v>46387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>48704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -15679,13 +15709,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>277673</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>277673</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15715,13 +15745,16 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="P10">
-        <v>254710</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>73</v>
+      </c>
+      <c r="Q10">
+        <v>532383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -15729,22 +15762,22 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>272177</v>
+        <v>567696</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E11">
-        <v>272177</v>
+        <v>567696</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -15753,25 +15786,28 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L11">
         <v>0.28571400000000002</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="N11">
         <v>0.28571400000000002</v>
       </c>
       <c r="O11">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="P11">
-        <v>272408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q11">
+        <v>568101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -15779,22 +15815,22 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>254479</v>
+        <v>531978</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E12">
-        <v>254479</v>
+        <v>531978</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -15803,25 +15839,28 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.33333299999999999</v>
+        <v>0.4</v>
       </c>
       <c r="L12">
         <v>0.25</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N12">
-        <v>0.33333299999999999</v>
+        <v>0.4</v>
       </c>
       <c r="O12">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="P12">
-        <v>254710</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>29</v>
+      </c>
+      <c r="Q12">
+        <v>532383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -15829,22 +15868,22 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>272177</v>
+        <v>549850</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>272177</v>
+        <v>549850</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -15862,16 +15901,19 @@
         <v>0.5</v>
       </c>
       <c r="N13">
-        <v>0.14285700000000001</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="O13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P13">
-        <v>272408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>30</v>
+      </c>
+      <c r="Q13">
+        <v>550081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -15879,13 +15921,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>3128</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3128</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -15915,13 +15957,16 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P14">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <v>47292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -15932,7 +15977,7 @@
         <v>44064</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>44064</v>
@@ -15965,13 +16010,16 @@
         <v>0.5</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
         <v>44164</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -16018,10 +16066,13 @@
         <v>3</v>
       </c>
       <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
         <v>44164</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -16068,10 +16119,13 @@
         <v>3</v>
       </c>
       <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
         <v>44396</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -16079,13 +16133,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>25165</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>25165</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -16115,13 +16169,16 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P18">
-        <v>254710</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>46</v>
+      </c>
+      <c r="Q18">
+        <v>279875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -16132,7 +16189,7 @@
         <v>254610</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>254610</v>
@@ -16165,13 +16222,16 @@
         <v>0.28571400000000002</v>
       </c>
       <c r="O19">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P19">
+        <v>14</v>
+      </c>
+      <c r="Q19">
         <v>254710</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -16182,7 +16242,7 @@
         <v>254610</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>254610</v>
@@ -16215,13 +16275,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P20">
+        <v>15</v>
+      </c>
+      <c r="Q20">
         <v>254710</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -16229,22 +16292,22 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>254610</v>
+        <v>300897</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>254610</v>
+        <v>300897</v>
       </c>
       <c r="F21">
-        <v>0.33333299999999999</v>
+        <v>0.14285700000000001</v>
       </c>
       <c r="G21">
-        <v>0.33333299999999999</v>
+        <v>0.14285700000000001</v>
       </c>
       <c r="H21">
-        <v>0.33333299999999999</v>
+        <v>0.14285700000000001</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -16262,16 +16325,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.16666700000000001</v>
+        <v>0.5</v>
       </c>
       <c r="O21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P21">
-        <v>254710</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q21">
+        <v>300997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -16279,13 +16345,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>38627</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>38627</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -16315,13 +16381,16 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="P22">
-        <v>254710</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>47</v>
+      </c>
+      <c r="Q22">
+        <v>293337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -16332,7 +16401,7 @@
         <v>254610</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>254610</v>
@@ -16365,13 +16434,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P23">
+        <v>14</v>
+      </c>
+      <c r="Q23">
         <v>254710</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -16382,7 +16454,7 @@
         <v>254610</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>254610</v>
@@ -16415,13 +16487,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P24">
+        <v>15</v>
+      </c>
+      <c r="Q24">
         <v>254710</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -16429,22 +16504,22 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>254610</v>
+        <v>464641</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E25">
-        <v>254610</v>
+        <v>464641</v>
       </c>
       <c r="F25">
-        <v>0.33333299999999999</v>
+        <v>0.14285700000000001</v>
       </c>
       <c r="G25">
-        <v>0.33333299999999999</v>
+        <v>0.14285700000000001</v>
       </c>
       <c r="H25">
-        <v>0.33333299999999999</v>
+        <v>0.14285700000000001</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -16462,16 +16537,19 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.16666700000000001</v>
+        <v>0.5</v>
       </c>
       <c r="O25">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="P25">
-        <v>254710</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>32</v>
+      </c>
+      <c r="Q25">
+        <v>464741</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -16479,13 +16557,13 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>5351</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>5351</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -16515,13 +16593,16 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P26">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>8</v>
+      </c>
+      <c r="Q26">
+        <v>49515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -16568,10 +16649,13 @@
         <v>3</v>
       </c>
       <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
         <v>44164</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -16618,10 +16702,13 @@
         <v>3</v>
       </c>
       <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
         <v>44164</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -16629,25 +16716,25 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>44064</v>
+        <v>90351</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>44064</v>
+        <v>90351</v>
       </c>
       <c r="F29">
-        <v>0.25</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="G29">
-        <v>0.25</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="H29">
-        <v>0.25</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -16662,16 +16749,19 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P29">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>5</v>
+      </c>
+      <c r="Q29">
+        <v>90451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -16679,13 +16769,13 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2135</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2135</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -16715,13 +16805,16 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P30">
-        <v>46387</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>5</v>
+      </c>
+      <c r="Q30">
+        <v>48522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -16729,13 +16822,13 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>55820</v>
+        <v>56936</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31">
-        <v>55820</v>
+        <v>56936</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -16747,7 +16840,7 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -16768,10 +16861,13 @@
         <v>2</v>
       </c>
       <c r="P31">
-        <v>55920</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>58142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -16779,13 +16875,13 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>46287</v>
+        <v>46469</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>46287</v>
+        <v>46469</v>
       </c>
       <c r="F32">
         <v>0.66666700000000001</v>
@@ -16815,13 +16911,16 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P32">
-        <v>46387</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <v>48704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -16829,13 +16928,13 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>46287</v>
+        <v>48422</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>46287</v>
+        <v>48422</v>
       </c>
       <c r="F33">
         <v>0.33333299999999999</v>
@@ -16865,13 +16964,16 @@
         <v>0.5</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P33">
-        <v>46387</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>48522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -16879,13 +16981,13 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>13462</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>13462</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -16915,13 +17017,16 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="P34">
-        <v>254710</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>43</v>
+      </c>
+      <c r="Q34">
+        <v>268172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -16932,7 +17037,7 @@
         <v>254610</v>
       </c>
       <c r="D35">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>254610</v>
@@ -16965,13 +17070,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O35">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P35">
+        <v>16</v>
+      </c>
+      <c r="Q35">
         <v>254710</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -16982,7 +17090,7 @@
         <v>254610</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>254610</v>
@@ -17015,13 +17123,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O36">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P36">
+        <v>14</v>
+      </c>
+      <c r="Q36">
         <v>254710</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -17029,13 +17140,13 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>254610</v>
+        <v>418354</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E37">
-        <v>254610</v>
+        <v>418354</v>
       </c>
       <c r="F37">
         <v>0.33333299999999999</v>
@@ -17065,13 +17176,16 @@
         <v>0.16666700000000001</v>
       </c>
       <c r="O37">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P37">
-        <v>254710</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+        <v>27</v>
+      </c>
+      <c r="Q37">
+        <v>418454</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -17079,13 +17193,13 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>2135</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2135</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -17115,13 +17229,16 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P38">
-        <v>46387</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>7</v>
+      </c>
+      <c r="Q38">
+        <v>48522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -17129,13 +17246,13 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>55820</v>
+        <v>92574</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>55820</v>
+        <v>92574</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -17147,7 +17264,7 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -17165,13 +17282,16 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>55920</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+        <v>4</v>
+      </c>
+      <c r="Q39">
+        <v>92674</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -17179,13 +17299,13 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>46287</v>
+        <v>92574</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>46287</v>
+        <v>92574</v>
       </c>
       <c r="F40">
         <v>0.66666700000000001</v>
@@ -17197,7 +17317,7 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -17215,13 +17335,16 @@
         <v>1</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>46387</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>4</v>
+      </c>
+      <c r="Q40">
+        <v>92674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -17229,13 +17352,13 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>46287</v>
+        <v>94891</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>46287</v>
+        <v>94891</v>
       </c>
       <c r="F41">
         <v>0.33333299999999999</v>
@@ -17247,7 +17370,7 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -17265,13 +17388,16 @@
         <v>0.5</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>46387</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <v>94991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -17279,13 +17405,13 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>2223</v>
       </c>
       <c r="D42">
         <v>8</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>2223</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -17318,10 +17444,13 @@
         <v>8</v>
       </c>
       <c r="P42">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>8</v>
+      </c>
+      <c r="Q42">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>104</v>
       </c>
@@ -17332,7 +17461,7 @@
         <v>44064</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>44064</v>
@@ -17365,13 +17494,16 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="O43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43">
         <v>44164</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -17418,10 +17550,13 @@
         <v>3</v>
       </c>
       <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="Q44">
         <v>44164</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -17429,25 +17564,25 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>44064</v>
+        <v>90351</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>44064</v>
+        <v>90351</v>
       </c>
       <c r="F45">
-        <v>0.33333299999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G45">
-        <v>0.33333299999999999</v>
+        <v>0.2</v>
       </c>
       <c r="H45">
-        <v>0.33333299999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -17462,16 +17597,19 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P45">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+        <v>5</v>
+      </c>
+      <c r="Q45">
+        <v>90451</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -17479,13 +17617,13 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>5351</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>5351</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -17515,13 +17653,16 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P46">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+        <v>9</v>
+      </c>
+      <c r="Q46">
+        <v>49515</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -17529,22 +17670,22 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>44064</v>
+        <v>106531</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="E47">
-        <v>44064</v>
+        <v>106531</v>
       </c>
       <c r="F47">
-        <v>0.66666700000000001</v>
+        <v>0.4</v>
       </c>
       <c r="G47">
-        <v>0.66666700000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H47">
-        <v>0.66666700000000001</v>
+        <v>0.4</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -17553,25 +17694,28 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <v>0.66666700000000001</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P47">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+        <v>168</v>
+      </c>
+      <c r="Q47">
+        <v>111982</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -17579,22 +17723,22 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>44064</v>
+        <v>106531</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="E48">
-        <v>44064</v>
+        <v>106531</v>
       </c>
       <c r="F48">
-        <v>0.5</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="G48">
-        <v>0.5</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="H48">
-        <v>0.5</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -17603,25 +17747,28 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>0.5</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="N48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P48">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+        <v>167</v>
+      </c>
+      <c r="Q48">
+        <v>111982</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -17629,25 +17776,25 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>44064</v>
+        <v>49415</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49">
-        <v>44064</v>
+        <v>49415</v>
       </c>
       <c r="F49">
-        <v>0.25</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="G49">
-        <v>0.25</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="H49">
-        <v>0.25</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -17662,16 +17809,19 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O49">
         <v>3</v>
       </c>
       <c r="P49">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+        <v>3</v>
+      </c>
+      <c r="Q49">
+        <v>49515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -17679,13 +17829,13 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>2135</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>2135</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -17715,13 +17865,16 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P50">
-        <v>46387</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+        <v>5</v>
+      </c>
+      <c r="Q50">
+        <v>48522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -17747,7 +17900,7 @@
         <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -17768,10 +17921,13 @@
         <v>2</v>
       </c>
       <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
         <v>49202</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>106</v>
       </c>
@@ -17818,10 +17974,13 @@
         <v>2</v>
       </c>
       <c r="P52">
+        <v>2</v>
+      </c>
+      <c r="Q52">
         <v>46387</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>106</v>
       </c>
@@ -17829,13 +17988,13 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>46286</v>
+        <v>94888</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>46286</v>
+        <v>94888</v>
       </c>
       <c r="F53">
         <v>0.33333299999999999</v>
@@ -17847,7 +18006,7 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -17862,16 +18021,19 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0.33333299999999999</v>
+        <v>0.5</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P53">
-        <v>46387</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+        <v>4</v>
+      </c>
+      <c r="Q53">
+        <v>94989</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -17879,13 +18041,13 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>2135</v>
       </c>
       <c r="D54">
         <v>5</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>2135</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -17918,10 +18080,13 @@
         <v>5</v>
       </c>
       <c r="P54">
-        <v>46387</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+        <v>5</v>
+      </c>
+      <c r="Q54">
+        <v>48522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -17947,7 +18112,7 @@
         <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -17968,10 +18133,13 @@
         <v>2</v>
       </c>
       <c r="P55">
+        <v>2</v>
+      </c>
+      <c r="Q55">
         <v>49543</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -17982,7 +18150,7 @@
         <v>46286</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>46286</v>
@@ -18015,13 +18183,16 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P56">
+        <v>2</v>
+      </c>
+      <c r="Q56">
         <v>46387</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -18029,13 +18200,13 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>46286</v>
+        <v>94888</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>46286</v>
+        <v>94888</v>
       </c>
       <c r="F57">
         <v>0.33333299999999999</v>
@@ -18047,7 +18218,7 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -18062,16 +18233,19 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0.33333299999999999</v>
+        <v>0.5</v>
       </c>
       <c r="O57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>46387</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+        <v>4</v>
+      </c>
+      <c r="Q57">
+        <v>94989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -18079,13 +18253,13 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>3128</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>3128</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -18115,13 +18289,16 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P58">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+        <v>8</v>
+      </c>
+      <c r="Q58">
+        <v>47292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>108</v>
       </c>
@@ -18129,13 +18306,13 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>44064</v>
+        <v>62467</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <v>44064</v>
+        <v>62467</v>
       </c>
       <c r="F59">
         <v>0.66666700000000001</v>
@@ -18165,13 +18342,16 @@
         <v>0.5</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+        <v>4</v>
+      </c>
+      <c r="Q59">
+        <v>65695</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -18179,13 +18359,13 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>44064</v>
+        <v>62467</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>44064</v>
+        <v>62467</v>
       </c>
       <c r="F60">
         <v>0.5</v>
@@ -18215,13 +18395,16 @@
         <v>0.5</v>
       </c>
       <c r="O60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P60">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+        <v>5</v>
+      </c>
+      <c r="Q60">
+        <v>65695</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -18229,13 +18412,13 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>44064</v>
+        <v>47192</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61">
-        <v>44064</v>
+        <v>47192</v>
       </c>
       <c r="F61">
         <v>0.25</v>
@@ -18268,10 +18451,13 @@
         <v>3</v>
       </c>
       <c r="P61">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+        <v>3</v>
+      </c>
+      <c r="Q61">
+        <v>47292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -18279,13 +18465,13 @@
         <v>4</v>
       </c>
       <c r="C62">
-        <v>272177</v>
+        <v>277673</v>
       </c>
       <c r="D62">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E62">
-        <v>272177</v>
+        <v>277673</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -18315,13 +18501,16 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="P62">
-        <v>272408</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+        <v>68</v>
+      </c>
+      <c r="Q62">
+        <v>532383</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>95</v>
       </c>
@@ -18329,13 +18518,13 @@
         <v>4</v>
       </c>
       <c r="C63">
-        <v>46287</v>
+        <v>2135</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E63">
-        <v>46287</v>
+        <v>2135</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -18365,13 +18554,16 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P63">
-        <v>46387</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+        <v>6</v>
+      </c>
+      <c r="Q63">
+        <v>48522</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -18379,13 +18571,13 @@
         <v>4</v>
       </c>
       <c r="C64">
-        <v>272177</v>
+        <v>277673</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E64">
-        <v>272177</v>
+        <v>277673</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -18415,13 +18607,16 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="P64">
-        <v>272408</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+        <v>73</v>
+      </c>
+      <c r="Q64">
+        <v>532383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -18429,13 +18624,13 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>44296</v>
+        <v>3128</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E65">
-        <v>44296</v>
+        <v>3128</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -18465,13 +18660,16 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P65">
-        <v>44396</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+        <v>9</v>
+      </c>
+      <c r="Q65">
+        <v>47292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
         <v>98</v>
       </c>
@@ -18479,13 +18677,13 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>254610</v>
+        <v>25165</v>
       </c>
       <c r="D66">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E66">
-        <v>254610</v>
+        <v>25165</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -18515,13 +18713,16 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="P66">
-        <v>254710</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+        <v>46</v>
+      </c>
+      <c r="Q66">
+        <v>279875</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
         <v>99</v>
       </c>
@@ -18529,13 +18730,13 @@
         <v>4</v>
       </c>
       <c r="C67">
-        <v>254610</v>
+        <v>38627</v>
       </c>
       <c r="D67">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E67">
-        <v>254610</v>
+        <v>38627</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -18565,13 +18766,16 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="P67">
-        <v>254710</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+        <v>47</v>
+      </c>
+      <c r="Q67">
+        <v>293337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
         <v>100</v>
       </c>
@@ -18579,13 +18783,13 @@
         <v>4</v>
       </c>
       <c r="C68">
-        <v>44064</v>
+        <v>5351</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E68">
-        <v>44064</v>
+        <v>5351</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -18615,13 +18819,16 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P68">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+        <v>8</v>
+      </c>
+      <c r="Q68">
+        <v>49515</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
         <v>101</v>
       </c>
@@ -18629,13 +18836,13 @@
         <v>4</v>
       </c>
       <c r="C69">
-        <v>46287</v>
+        <v>2135</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E69">
-        <v>46287</v>
+        <v>2135</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -18665,13 +18872,16 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P69">
-        <v>46387</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+        <v>5</v>
+      </c>
+      <c r="Q69">
+        <v>48522</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -18679,13 +18889,13 @@
         <v>4</v>
       </c>
       <c r="C70">
-        <v>254610</v>
+        <v>13462</v>
       </c>
       <c r="D70">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E70">
-        <v>254610</v>
+        <v>13462</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -18715,13 +18925,16 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="P70">
-        <v>254710</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+        <v>43</v>
+      </c>
+      <c r="Q70">
+        <v>268172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -18729,13 +18942,13 @@
         <v>4</v>
       </c>
       <c r="C71">
-        <v>46287</v>
+        <v>2135</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E71">
-        <v>46287</v>
+        <v>2135</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -18765,13 +18978,16 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P71">
-        <v>46387</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+        <v>7</v>
+      </c>
+      <c r="Q71">
+        <v>48522</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>104</v>
       </c>
@@ -18779,13 +18995,13 @@
         <v>4</v>
       </c>
       <c r="C72">
-        <v>44064</v>
+        <v>2223</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E72">
-        <v>44064</v>
+        <v>2223</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -18815,13 +19031,16 @@
         <v>0</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P72">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+        <v>8</v>
+      </c>
+      <c r="Q72">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>105</v>
       </c>
@@ -18829,13 +19048,13 @@
         <v>4</v>
       </c>
       <c r="C73">
-        <v>44064</v>
+        <v>5351</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E73">
-        <v>44064</v>
+        <v>5351</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -18865,13 +19084,16 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P73">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+        <v>9</v>
+      </c>
+      <c r="Q73">
+        <v>49515</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>106</v>
       </c>
@@ -18879,13 +19101,13 @@
         <v>4</v>
       </c>
       <c r="C74">
-        <v>46286</v>
+        <v>2135</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E74">
-        <v>46286</v>
+        <v>2135</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -18915,13 +19137,16 @@
         <v>0</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P74">
-        <v>46387</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+        <v>5</v>
+      </c>
+      <c r="Q74">
+        <v>48522</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -18929,13 +19154,13 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>46286</v>
+        <v>2135</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E75">
-        <v>46286</v>
+        <v>2135</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -18965,13 +19190,16 @@
         <v>0</v>
       </c>
       <c r="O75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P75">
-        <v>46387</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+        <v>5</v>
+      </c>
+      <c r="Q75">
+        <v>48522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
         <v>108</v>
       </c>
@@ -18979,13 +19207,13 @@
         <v>4</v>
       </c>
       <c r="C76">
-        <v>44064</v>
+        <v>3128</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E76">
-        <v>44064</v>
+        <v>3128</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -19015,31 +19243,34 @@
         <v>0</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P76">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+        <v>8</v>
+      </c>
+      <c r="Q76">
+        <v>47292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
         <v>73</v>
       </c>
       <c r="F78">
         <f>AVERAGE(F2:F76)</f>
-        <v>0.36777778666666666</v>
+        <v>0.33958731999999997</v>
       </c>
       <c r="G78">
-        <f t="shared" ref="G78:O78" si="0">AVERAGE(G2:G76)</f>
-        <v>0.36777778666666666</v>
+        <f t="shared" ref="G78:P78" si="0">AVERAGE(G2:G76)</f>
+        <v>0.34180954666666663</v>
       </c>
       <c r="H78">
         <f t="shared" si="0"/>
-        <v>0.36777778666666666</v>
+        <v>0.33958731999999997</v>
       </c>
       <c r="I78">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10488889333333333</v>
       </c>
       <c r="J78">
         <f t="shared" si="0"/>
@@ -19047,7 +19278,7 @@
       </c>
       <c r="K78">
         <f t="shared" si="0"/>
-        <v>0.11822221333333334</v>
+        <v>0.14711110666666669</v>
       </c>
       <c r="L78">
         <f t="shared" si="0"/>
@@ -19055,36 +19286,40 @@
       </c>
       <c r="M78">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>5.0666666666666665E-2</v>
       </c>
       <c r="N78">
         <f t="shared" si="0"/>
-        <v>0.22171425333333331</v>
+        <v>0.25990474666666669</v>
       </c>
       <c r="O78">
         <f t="shared" si="0"/>
-        <v>8.9333333333333336</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+        <v>14.706666666666667</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="0"/>
+        <v>18.96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
         <v>28</v>
       </c>
       <c r="F79">
         <f>STDEV(F2:F76)</f>
-        <v>0.36171241096799289</v>
+        <v>0.34957972056971348</v>
       </c>
       <c r="G79">
-        <f t="shared" ref="G79:O79" si="1">STDEV(G2:G76)</f>
-        <v>0.36171241096799289</v>
+        <f t="shared" ref="G79:P79" si="1">STDEV(G2:G76)</f>
+        <v>0.3500688221143014</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>0.36171241096799289</v>
+        <v>0.34957972056971348</v>
       </c>
       <c r="I79">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2738170545005183</v>
       </c>
       <c r="J79">
         <f t="shared" si="1"/>
@@ -19092,7 +19327,7 @@
       </c>
       <c r="K79">
         <f t="shared" si="1"/>
-        <v>0.27717436345334084</v>
+        <v>0.31298684491380235</v>
       </c>
       <c r="L79">
         <f t="shared" si="1"/>
@@ -19100,15 +19335,19 @@
       </c>
       <c r="M79">
         <f t="shared" si="1"/>
-        <v>0.17933812244517941</v>
+        <v>0.17175652332096825</v>
       </c>
       <c r="N79">
         <f t="shared" si="1"/>
-        <v>0.26348038999752099</v>
+        <v>0.29878306840307045</v>
       </c>
       <c r="O79">
         <f t="shared" si="1"/>
-        <v>9.1331492057457613</v>
+        <v>18.216990386415063</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="1"/>
+        <v>30.71289895405776</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_results/data_collector.xlsx
+++ b/experiment_results/data_collector.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,8 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yguo/RubymineProjects/altar/experiment_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC25D227-500F-2648-ADF6-BA937BCE1560}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="460" windowWidth="32500" windowHeight="26740" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_collector_Simple" sheetId="1" r:id="rId1"/>
@@ -15218,8 +15219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8AB4EB-D5A3-0142-A783-5D87E7F6D339}">
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="P88" sqref="P88"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
